--- a/R1 Paired end read #1 Multiplexing Assignment.xlsx
+++ b/R1 Paired end read #1 Multiplexing Assignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22658ee15b6e12cd/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEC4E7FE-12A1-4641-BF07-9F373EE6ECFF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{CEC4E7FE-12A1-4641-BF07-9F373EE6ECFF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{34635C23-7F68-47E0-8023-65B37233AF82}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D2A10E50-896F-4268-A965-8126867254C9}"/>
   </bookViews>
@@ -17,9 +17,6 @@
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$2:$B$102</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$2:$B$102</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2:$B$102</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$2:$B$102</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1072,7 +1069,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1145,6 +1142,24 @@
           </cx:txPr>
         </cx:title>
         <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
@@ -2321,10 +2336,10 @@
       <xdr:rowOff>373380</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -2361,7 +2376,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="1828800" y="373380"/>
-              <a:ext cx="5859780" cy="3421380"/>
+              <a:ext cx="11483340" cy="4191000"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2693,8 +2708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2FCF8F-B783-46A1-963B-DF0FB209E46E}">
   <dimension ref="A1:B102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
